--- a/Intel.xlsx
+++ b/Intel.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="intel" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="color_code" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="152">
   <si>
     <t xml:space="preserve">query</t>
   </si>
@@ -1184,6 +1185,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ヨーロッパ</t>
     </r>
@@ -1206,6 +1208,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">欧洲</t>
     </r>
@@ -1237,6 +1240,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ドイツ連邦共和国</t>
     </r>
@@ -1259,6 +1263,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">德国</t>
     </r>
@@ -1299,6 +1304,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ドイツ連邦共和国</t>
     </r>
@@ -1321,6 +1327,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">德国</t>
     </r>
@@ -1352,6 +1359,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">バーデン＝ヴュルテンベルク州</t>
     </r>
@@ -1373,6 +1381,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">巴登</t>
     </r>
@@ -1392,6 +1401,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">符腾堡</t>
     </r>
@@ -1571,6 +1581,30 @@
   <si>
     <t xml:space="preserve">403 Forbidden</t>
   </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified or High Confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research/Verify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Positive or Dead Link</t>
+  </si>
 </sst>
 </file>
 
@@ -1615,9 +1649,10 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1642,8 +1677,14 @@
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1656,6 +1697,13 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1684,7 +1732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1710,6 +1758,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1766,7 +1830,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1792,22 +1856,22 @@
   </sheetPr>
   <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO23" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="17.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.71"/>
@@ -5165,4 +5229,67 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B9" activeCellId="0" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>